--- a/runs/run660/NotionalETEOutput660.xlsx
+++ b/runs/run660/NotionalETEOutput660.xlsx
@@ -52,7 +52,7 @@
     <t>Missile_HELLMASKER0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER0_130.MISSILE_HELLMASKER0_130</t>
+    <t>MISSILE_HELLMASKER0_168.MISSILE_HELLMASKER0_168</t>
   </si>
   <si>
     <t>MISSILE_HELLMASKER0</t>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1481.807267572367</v>
+        <v>-1548.88454461569</v>
       </c>
       <c r="J2">
-        <v>1972.32773372051</v>
+        <v>1955.401745424368</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1531.37060662403</v>
+        <v>-1539.544750565333</v>
       </c>
       <c r="J3">
-        <v>1949.033017487298</v>
+        <v>1884.608502200684</v>
       </c>
       <c r="K3">
-        <v>299.4200513510324</v>
+        <v>302.1626804202989</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1431.436369264392</v>
+        <v>-1477.471197591832</v>
       </c>
       <c r="J4">
-        <v>1906.908921033212</v>
+        <v>1946.432234153623</v>
       </c>
       <c r="K4">
-        <v>577.3508898917274</v>
+        <v>587.8020087076411</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1454.389556622486</v>
+        <v>-1433.076627856991</v>
       </c>
       <c r="J5">
-        <v>1831.228058820767</v>
+        <v>1813.311550770628</v>
       </c>
       <c r="K5">
-        <v>880.8071166601101</v>
+        <v>893.620984648377</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1391.661171061147</v>
+        <v>-1342.864787091213</v>
       </c>
       <c r="J6">
-        <v>1796.275868578053</v>
+        <v>1878.426625179275</v>
       </c>
       <c r="K6">
-        <v>1084.166931496752</v>
+        <v>1104.857374265566</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1405.28729063702</v>
+        <v>-1316.739507461592</v>
       </c>
       <c r="J7">
-        <v>1678.826713500887</v>
+        <v>1730.614264267158</v>
       </c>
       <c r="K7">
-        <v>1329.980336549706</v>
+        <v>1343.905968765611</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1334.565398572894</v>
+        <v>-1359.897165432888</v>
       </c>
       <c r="J8">
-        <v>1637.262743169602</v>
+        <v>1715.138830499556</v>
       </c>
       <c r="K8">
-        <v>1581.520020282635</v>
+        <v>1547.886134861666</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-95.22229640093239</v>
+        <v>-104.0139805757351</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1232.295545898266</v>
+        <v>-1276.102080868932</v>
       </c>
       <c r="J9">
-        <v>1611.119268206264</v>
+        <v>1718.605397990885</v>
       </c>
       <c r="K9">
-        <v>1763.721617965328</v>
+        <v>1809.028346602041</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>207.1743495904389</v>
+        <v>217.4761412384341</v>
       </c>
       <c r="G10">
-        <v>-86.60317001408362</v>
+        <v>-85.19773425597897</v>
       </c>
       <c r="H10">
-        <v>860.4282192830747</v>
+        <v>817.5263436321925</v>
       </c>
       <c r="I10">
-        <v>-1198.985618997657</v>
+        <v>-1284.129213974021</v>
       </c>
       <c r="J10">
-        <v>1558.301591674319</v>
+        <v>1534.896571686036</v>
       </c>
       <c r="K10">
-        <v>1981.724022474235</v>
+        <v>1913.852314765276</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>173.9745451349058</v>
+        <v>162.2011434649364</v>
       </c>
       <c r="G11">
-        <v>-66.0563527740792</v>
+        <v>-68.1058387808998</v>
       </c>
       <c r="H11">
-        <v>1022.014393734178</v>
+        <v>1107.778636461967</v>
       </c>
       <c r="I11">
-        <v>-1205.888630917955</v>
+        <v>-1203.254276042722</v>
       </c>
       <c r="J11">
-        <v>1597.011116060814</v>
+        <v>1608.090131581588</v>
       </c>
       <c r="K11">
-        <v>2163.047868050145</v>
+        <v>2279.652007052703</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>146.2548106456433</v>
+        <v>143.6565461199647</v>
       </c>
       <c r="G12">
-        <v>-51.0047760344825</v>
+        <v>-51.76095280168919</v>
       </c>
       <c r="H12">
-        <v>1194.391667378136</v>
+        <v>1159.65332905044</v>
       </c>
       <c r="I12">
-        <v>-1178.223015044304</v>
+        <v>-1131.317252757047</v>
       </c>
       <c r="J12">
-        <v>1585.081248899885</v>
+        <v>1527.304258862894</v>
       </c>
       <c r="K12">
-        <v>2470.493370680335</v>
+        <v>2255.485394274766</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>123.4345152084908</v>
+        <v>122.9546786718167</v>
       </c>
       <c r="G13">
-        <v>-32.85505212246138</v>
+        <v>-33.83878504711302</v>
       </c>
       <c r="H13">
-        <v>1228.420418459633</v>
+        <v>1292.522564748525</v>
       </c>
       <c r="I13">
-        <v>-1087.857888806539</v>
+        <v>-1182.276703591475</v>
       </c>
       <c r="J13">
-        <v>1464.325238657827</v>
+        <v>1442.03622554483</v>
       </c>
       <c r="K13">
-        <v>2430.025364022821</v>
+        <v>2522.343249542599</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>107.7577124678783</v>
+        <v>105.4805015628939</v>
       </c>
       <c r="G14">
-        <v>-17.89523193968566</v>
+        <v>-17.04441437671431</v>
       </c>
       <c r="H14">
-        <v>1323.236561797423</v>
+        <v>1361.094430894411</v>
       </c>
       <c r="I14">
-        <v>-1136.283756453531</v>
+        <v>-1070.018868858288</v>
       </c>
       <c r="J14">
-        <v>1361.371365854342</v>
+        <v>1445.474872525111</v>
       </c>
       <c r="K14">
-        <v>2549.710246439289</v>
+        <v>2637.266570818751</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>97.76805686929907</v>
+        <v>102.2971706941477</v>
       </c>
       <c r="G15">
-        <v>-0.941963249446401</v>
+        <v>-0.8855649301910734</v>
       </c>
       <c r="H15">
-        <v>1442.307946255659</v>
+        <v>1334.359906853136</v>
       </c>
       <c r="I15">
-        <v>-1032.172970657842</v>
+        <v>-1085.919360517892</v>
       </c>
       <c r="J15">
-        <v>1329.257278874271</v>
+        <v>1382.846906641166</v>
       </c>
       <c r="K15">
-        <v>2715.288270684021</v>
+        <v>2723.538097423011</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>90.2142731892974</v>
+        <v>91.54049832643062</v>
       </c>
       <c r="G16">
-        <v>15.42263780885225</v>
+        <v>14.99236418872608</v>
       </c>
       <c r="H16">
-        <v>1464.338146901475</v>
+        <v>1441.550468925729</v>
       </c>
       <c r="I16">
-        <v>-1043.987626988562</v>
+        <v>-1051.809555235715</v>
       </c>
       <c r="J16">
-        <v>1359.294941430758</v>
+        <v>1356.381399497067</v>
       </c>
       <c r="K16">
-        <v>2862.517472352078</v>
+        <v>2961.543081340916</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>84.80194327235012</v>
+        <v>86.62159369032001</v>
       </c>
       <c r="G17">
-        <v>33.31088197081435</v>
+        <v>30.60081548182993</v>
       </c>
       <c r="H17">
-        <v>1446.569468942651</v>
+        <v>1457.59653453319</v>
       </c>
       <c r="I17">
-        <v>-975.2895994260538</v>
+        <v>-1007.719771412863</v>
       </c>
       <c r="J17">
-        <v>1331.125799424019</v>
+        <v>1263.525129674248</v>
       </c>
       <c r="K17">
-        <v>2961.458724946647</v>
+        <v>2910.694665170192</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>83.15142450975149</v>
+        <v>81.82002868338498</v>
       </c>
       <c r="G18">
-        <v>47.39455016248362</v>
+        <v>50.44457353142746</v>
       </c>
       <c r="H18">
-        <v>1559.553165901627</v>
+        <v>1506.708916353977</v>
       </c>
       <c r="I18">
-        <v>-936.4910369369446</v>
+        <v>-881.7100493591819</v>
       </c>
       <c r="J18">
-        <v>1235.47314565948</v>
+        <v>1171.307164310299</v>
       </c>
       <c r="K18">
-        <v>3152.19051828402</v>
+        <v>3164.380585926981</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>77.96242012780053</v>
+        <v>76.54686613428292</v>
       </c>
       <c r="G19">
-        <v>66.8187164427061</v>
+        <v>63.97976377062531</v>
       </c>
       <c r="H19">
-        <v>1482.630507933252</v>
+        <v>1548.296087236337</v>
       </c>
       <c r="I19">
-        <v>-847.3192173660283</v>
+        <v>-845.5453572122773</v>
       </c>
       <c r="J19">
-        <v>1199.47376692577</v>
+        <v>1158.640819897668</v>
       </c>
       <c r="K19">
-        <v>3056.690153652431</v>
+        <v>2960.393948919382</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>71.19222236657838</v>
+        <v>76.67383007393977</v>
       </c>
       <c r="G20">
-        <v>84.84073297291552</v>
+        <v>80.62972300580378</v>
       </c>
       <c r="H20">
-        <v>1485.030445987917</v>
+        <v>1591.313355676204</v>
       </c>
       <c r="I20">
-        <v>-843.5091791807542</v>
+        <v>-804.9063265873182</v>
       </c>
       <c r="J20">
-        <v>1132.219940666432</v>
+        <v>1118.677122671581</v>
       </c>
       <c r="K20">
-        <v>3008.336329369328</v>
+        <v>3001.25698797279</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.85548441744933</v>
+        <v>72.06571000688929</v>
       </c>
       <c r="G21">
-        <v>101.7956040376081</v>
+        <v>93.34331719872472</v>
       </c>
       <c r="H21">
-        <v>1609.98844599727</v>
+        <v>1514.872764439415</v>
       </c>
       <c r="I21">
-        <v>-824.7011471719776</v>
+        <v>-754.0648231657304</v>
       </c>
       <c r="J21">
-        <v>1115.799537224475</v>
+        <v>1056.592825774931</v>
       </c>
       <c r="K21">
-        <v>3101.607296352285</v>
+        <v>3099.093157114401</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>71.53526843570398</v>
+        <v>67.42022514273512</v>
       </c>
       <c r="G22">
-        <v>110.6997994319208</v>
+        <v>118.1171473616437</v>
       </c>
       <c r="H22">
-        <v>1652.094359166734</v>
+        <v>1684.868189024787</v>
       </c>
       <c r="I22">
-        <v>-746.3237447246382</v>
+        <v>-718.9319431614265</v>
       </c>
       <c r="J22">
-        <v>979.7807699694447</v>
+        <v>1053.56278269965</v>
       </c>
       <c r="K22">
-        <v>3147.470002630037</v>
+        <v>3125.230787441791</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>67.87706047953574</v>
+        <v>64.69925488999939</v>
       </c>
       <c r="G23">
-        <v>130.220575877584</v>
+        <v>130.8773903161174</v>
       </c>
       <c r="H23">
-        <v>1622.061556560183</v>
+        <v>1623.548214809907</v>
       </c>
       <c r="I23">
-        <v>-664.1915099597468</v>
+        <v>-673.4882112587266</v>
       </c>
       <c r="J23">
-        <v>997.4129906017706</v>
+        <v>966.7617581635278</v>
       </c>
       <c r="K23">
-        <v>3110.077173639729</v>
+        <v>3050.818020601546</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>65.61264996275996</v>
+        <v>63.324655723165</v>
       </c>
       <c r="G24">
-        <v>152.4840435429097</v>
+        <v>149.9319567868526</v>
       </c>
       <c r="H24">
-        <v>1680.701072617176</v>
+        <v>1578.334780016514</v>
       </c>
       <c r="I24">
-        <v>-643.4759840547487</v>
+        <v>-621.7301359172664</v>
       </c>
       <c r="J24">
-        <v>972.0302721023048</v>
+        <v>916.7906264196935</v>
       </c>
       <c r="K24">
-        <v>3332.29470733173</v>
+        <v>3258.071950809607</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>62.8232729637764</v>
+        <v>63.45361758972362</v>
       </c>
       <c r="G25">
-        <v>156.324485011064</v>
+        <v>162.901075990071</v>
       </c>
       <c r="H25">
-        <v>1708.45776818759</v>
+        <v>1671.639999611241</v>
       </c>
       <c r="I25">
-        <v>-591.0439059230446</v>
+        <v>-600.8920733787471</v>
       </c>
       <c r="J25">
-        <v>863.1397970522967</v>
+        <v>917.6161756830616</v>
       </c>
       <c r="K25">
-        <v>3137.607804514665</v>
+        <v>3174.983673806079</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>61.15113016907205</v>
+        <v>59.63851047064997</v>
       </c>
       <c r="G26">
-        <v>181.9875618003556</v>
+        <v>180.4440689986735</v>
       </c>
       <c r="H26">
-        <v>1676.921241106418</v>
+        <v>1720.791848873582</v>
       </c>
       <c r="I26">
-        <v>-526.2710281943924</v>
+        <v>-553.8643282827704</v>
       </c>
       <c r="J26">
-        <v>801.4106233262887</v>
+        <v>826.9258480173019</v>
       </c>
       <c r="K26">
-        <v>3206.959071446471</v>
+        <v>3052.946941021201</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>58.67998311362825</v>
+        <v>57.06179195451687</v>
       </c>
       <c r="G27">
-        <v>192.6000022821593</v>
+        <v>195.8585278035293</v>
       </c>
       <c r="H27">
-        <v>1661.273484858332</v>
+        <v>1735.368317065604</v>
       </c>
       <c r="I27">
-        <v>-479.6773799544799</v>
+        <v>-488.7117335674354</v>
       </c>
       <c r="J27">
-        <v>774.8419179728634</v>
+        <v>797.80375246903</v>
       </c>
       <c r="K27">
-        <v>2903.045215459602</v>
+        <v>2918.604783843384</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.44868616564576</v>
+        <v>55.71889913102215</v>
       </c>
       <c r="G28">
-        <v>218.4664496979393</v>
+        <v>215.2207751548205</v>
       </c>
       <c r="H28">
-        <v>1690.91593797332</v>
+        <v>1640.977475735416</v>
       </c>
       <c r="I28">
-        <v>-452.3464418581453</v>
+        <v>-425.391259953595</v>
       </c>
       <c r="J28">
-        <v>742.1194074746594</v>
+        <v>762.4853848307717</v>
       </c>
       <c r="K28">
-        <v>3078.016117380626</v>
+        <v>2924.079698830614</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.95446429722153</v>
+        <v>56.89594425084504</v>
       </c>
       <c r="G29">
-        <v>230.6013334877815</v>
+        <v>241.6768329339817</v>
       </c>
       <c r="H29">
-        <v>1733.965415868714</v>
+        <v>1707.085397795473</v>
       </c>
       <c r="I29">
-        <v>-376.3076920997034</v>
+        <v>-389.5494985374664</v>
       </c>
       <c r="J29">
-        <v>682.3411398614488</v>
+        <v>681.765770544382</v>
       </c>
       <c r="K29">
-        <v>2854.614079830971</v>
+        <v>2929.21004988331</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>53.19067685795554</v>
+        <v>53.54956060920928</v>
       </c>
       <c r="G30">
-        <v>255.5992196706685</v>
+        <v>235.7385166589052</v>
       </c>
       <c r="H30">
-        <v>1683.17696268797</v>
+        <v>1692.010590633224</v>
       </c>
       <c r="I30">
-        <v>-328.1886818975836</v>
+        <v>-318.6321454213943</v>
       </c>
       <c r="J30">
-        <v>608.1079055398003</v>
+        <v>624.339380617912</v>
       </c>
       <c r="K30">
-        <v>2817.390109316944</v>
+        <v>2755.209160107186</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.75030048615128</v>
+        <v>51.25823091614631</v>
       </c>
       <c r="G31">
-        <v>255.8794308355978</v>
+        <v>261.9885245497686</v>
       </c>
       <c r="H31">
-        <v>1726.8232105288</v>
+        <v>1681.613253565257</v>
       </c>
       <c r="I31">
-        <v>-255.3315697430091</v>
+        <v>-260.5501720470386</v>
       </c>
       <c r="J31">
-        <v>579.1632258725199</v>
+        <v>567.9448808094033</v>
       </c>
       <c r="K31">
-        <v>2696.020578084697</v>
+        <v>2749.384412718704</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.33512423482811</v>
+        <v>53.28909155030754</v>
       </c>
       <c r="G32">
-        <v>274.3837229084072</v>
+        <v>274.4072166975461</v>
       </c>
       <c r="H32">
-        <v>1786.175159609809</v>
+        <v>1759.044620451423</v>
       </c>
       <c r="I32">
-        <v>-197.4078131039724</v>
+        <v>-201.3366028616807</v>
       </c>
       <c r="J32">
-        <v>518.6048613781186</v>
+        <v>556.2858879446965</v>
       </c>
       <c r="K32">
-        <v>2531.236191481811</v>
+        <v>2606.709313318118</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>51.12784576379253</v>
+        <v>51.18574833990009</v>
       </c>
       <c r="G33">
-        <v>309.7649795085034</v>
+        <v>283.8716064299437</v>
       </c>
       <c r="H33">
-        <v>1742.119579126112</v>
+        <v>1708.033864625263</v>
       </c>
       <c r="I33">
-        <v>-146.0936277013227</v>
+        <v>-145.5354370078776</v>
       </c>
       <c r="J33">
-        <v>492.2018627506395</v>
+        <v>500.6234526456097</v>
       </c>
       <c r="K33">
-        <v>2331.323604502839</v>
+        <v>2486.9857092447</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.60515191793995</v>
+        <v>47.30642983547218</v>
       </c>
       <c r="G34">
-        <v>297.9489820934858</v>
+        <v>322.0686346877145</v>
       </c>
       <c r="H34">
-        <v>1844.548350815282</v>
+        <v>1843.674468553286</v>
       </c>
       <c r="I34">
-        <v>-85.48830705591919</v>
+        <v>-81.41618856271687</v>
       </c>
       <c r="J34">
-        <v>434.8240277933608</v>
+        <v>462.3715973569538</v>
       </c>
       <c r="K34">
-        <v>2192.975150297348</v>
+        <v>2229.967792198188</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>50.17421175061805</v>
+        <v>48.71086120823326</v>
       </c>
       <c r="G35">
-        <v>334.3572236648434</v>
+        <v>320.2300861453373</v>
       </c>
       <c r="H35">
-        <v>1853.734101171986</v>
+        <v>1834.838951029966</v>
       </c>
       <c r="I35">
-        <v>-19.15381035528667</v>
+        <v>-19.53633256061758</v>
       </c>
       <c r="J35">
-        <v>389.8260336275221</v>
+        <v>387.0481582124891</v>
       </c>
       <c r="K35">
-        <v>2111.31937979161</v>
+        <v>2123.33632597559</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.26964573962274</v>
+        <v>48.63170808857048</v>
       </c>
       <c r="G36">
-        <v>356.4963588557994</v>
+        <v>333.3618132496703</v>
       </c>
       <c r="H36">
-        <v>1892.776793366431</v>
+        <v>1790.729485629698</v>
       </c>
       <c r="I36">
-        <v>48.17146760128513</v>
+        <v>45.77126763958762</v>
       </c>
       <c r="J36">
-        <v>342.7748934525819</v>
+        <v>332.0292538908054</v>
       </c>
       <c r="K36">
-        <v>1844.219789811398</v>
+        <v>1900.115947448635</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.56158141876663</v>
+        <v>48.21830309937495</v>
       </c>
       <c r="G37">
-        <v>364.1876779427718</v>
+        <v>350.5953794484628</v>
       </c>
       <c r="H37">
-        <v>1841.310415036683</v>
+        <v>1928.874160371642</v>
       </c>
       <c r="I37">
-        <v>110.9497331555139</v>
+        <v>113.6659817527518</v>
       </c>
       <c r="J37">
-        <v>295.3581187961825</v>
+        <v>307.9045828841289</v>
       </c>
       <c r="K37">
-        <v>1658.242180525667</v>
+        <v>1641.633791153057</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>43.67325747028811</v>
+        <v>45.48216322567788</v>
       </c>
       <c r="G38">
-        <v>384.5327054570761</v>
+        <v>372.5445017268244</v>
       </c>
       <c r="H38">
-        <v>1912.327834385583</v>
+        <v>1805.769127677424</v>
       </c>
       <c r="I38">
-        <v>185.2349884571869</v>
+        <v>179.1185140352906</v>
       </c>
       <c r="J38">
-        <v>256.2700522764638</v>
+        <v>238.4181107719693</v>
       </c>
       <c r="K38">
-        <v>1355.581112787066</v>
+        <v>1428.695393471425</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>43.52234674111651</v>
+        <v>46.59140583687949</v>
       </c>
       <c r="G39">
-        <v>379.1016462131029</v>
+        <v>408.3502298714005</v>
       </c>
       <c r="H39">
-        <v>1940.653652347036</v>
+        <v>1952.228827708957</v>
       </c>
       <c r="I39">
-        <v>264.292427542048</v>
+        <v>242.8861010835769</v>
       </c>
       <c r="J39">
-        <v>195.4764473806746</v>
+        <v>191.060799496648</v>
       </c>
       <c r="K39">
-        <v>1191.621685441237</v>
+        <v>1202.790733594669</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>45.06110442872553</v>
+        <v>45.93672431112402</v>
       </c>
       <c r="G40">
-        <v>423.9743994471618</v>
+        <v>405.6751762796617</v>
       </c>
       <c r="H40">
-        <v>1963.666959794546</v>
+        <v>1837.364683124163</v>
       </c>
       <c r="I40">
-        <v>328.9998471568155</v>
+        <v>344.4284299522751</v>
       </c>
       <c r="J40">
-        <v>145.666314267031</v>
+        <v>144.5421568963422</v>
       </c>
       <c r="K40">
-        <v>852.6614979663632</v>
+        <v>932.9224164951254</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.04733969172082</v>
+        <v>42.76360385671644</v>
       </c>
       <c r="G41">
-        <v>435.3875232045951</v>
+        <v>428.9295559864185</v>
       </c>
       <c r="H41">
-        <v>1965.675745326673</v>
+        <v>1807.461203975951</v>
       </c>
       <c r="I41">
-        <v>393.8113886908</v>
+        <v>416.6724809407456</v>
       </c>
       <c r="J41">
-        <v>103.2384756293894</v>
+        <v>106.7188851476253</v>
       </c>
       <c r="K41">
-        <v>597.3308228821149</v>
+        <v>640.5143768206843</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.61816059295808</v>
+        <v>44.09335137920603</v>
       </c>
       <c r="G42">
-        <v>427.6320770791898</v>
+        <v>448.5236655928329</v>
       </c>
       <c r="H42">
-        <v>1881.765961503277</v>
+        <v>1842.390383975505</v>
       </c>
       <c r="I42">
-        <v>498.4598483816301</v>
+        <v>482.9746479474645</v>
       </c>
       <c r="J42">
-        <v>53.15240344174985</v>
+        <v>51.49535839001829</v>
       </c>
       <c r="K42">
-        <v>322.8230425811021</v>
+        <v>325.7925303688367</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.60122318743613</v>
+        <v>43.81607327188969</v>
       </c>
       <c r="G43">
-        <v>472.8466202137984</v>
+        <v>477.7951292927361</v>
       </c>
       <c r="H43">
-        <v>1918.097113429025</v>
+        <v>1818.79066011098</v>
       </c>
       <c r="I43">
-        <v>544.4517925388064</v>
+        <v>565.716719382547</v>
       </c>
       <c r="J43">
-        <v>5.291312321831571</v>
+        <v>5.472018028825284</v>
       </c>
       <c r="K43">
-        <v>32.8365062009813</v>
+        <v>33.26040232736007</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.41143405421941</v>
+        <v>41.15035696745884</v>
       </c>
       <c r="G44">
-        <v>487.6372396604907</v>
+        <v>459.399538921296</v>
       </c>
       <c r="H44">
-        <v>1889.506415857077</v>
+        <v>1824.87127265654</v>
       </c>
       <c r="I44">
-        <v>637.1941818638568</v>
+        <v>631.4889907953851</v>
       </c>
       <c r="J44">
-        <v>-42.38857981103585</v>
+        <v>-44.63516899123196</v>
       </c>
       <c r="K44">
-        <v>-286.5389433418787</v>
+        <v>-294.8033267114714</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.04057988492071</v>
+        <v>41.62485488077811</v>
       </c>
       <c r="G45">
-        <v>511.4890130838072</v>
+        <v>512.9100070545951</v>
       </c>
       <c r="H45">
-        <v>1951.261661735791</v>
+        <v>1823.504822698684</v>
       </c>
       <c r="I45">
-        <v>717.3098386771518</v>
+        <v>693.459637622727</v>
       </c>
       <c r="J45">
-        <v>-90.38495583721577</v>
+        <v>-96.14937736303624</v>
       </c>
       <c r="K45">
-        <v>-587.5374112986019</v>
+        <v>-620.2963977556019</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.95603538802196</v>
+        <v>41.97799301905204</v>
       </c>
       <c r="G46">
-        <v>518.7314819201659</v>
+        <v>527.7253660528867</v>
       </c>
       <c r="H46">
-        <v>1887.750623349313</v>
+        <v>1950.81781045426</v>
       </c>
       <c r="I46">
-        <v>793.5243441798914</v>
+        <v>831.2666649019266</v>
       </c>
       <c r="J46">
-        <v>-135.8689200881501</v>
+        <v>-140.2990098657955</v>
       </c>
       <c r="K46">
-        <v>-922.4760993423739</v>
+        <v>-923.4487343431754</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.40015839971667</v>
+        <v>40.43092838887723</v>
       </c>
       <c r="G47">
-        <v>532.1631296648648</v>
+        <v>538.2891602656339</v>
       </c>
       <c r="H47">
-        <v>1904.849963660466</v>
+        <v>2009.459086960816</v>
       </c>
       <c r="I47">
-        <v>925.17260899631</v>
+        <v>934.3492932712788</v>
       </c>
       <c r="J47">
-        <v>-198.3893056205539</v>
+        <v>-191.1233465993857</v>
       </c>
       <c r="K47">
-        <v>-1344.355169973075</v>
+        <v>-1317.503129997888</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.72816292942819</v>
+        <v>38.98050471565104</v>
       </c>
       <c r="G48">
-        <v>533.4163464673259</v>
+        <v>563.1860797115495</v>
       </c>
       <c r="H48">
-        <v>2031.613666141248</v>
+        <v>1941.569979390823</v>
       </c>
       <c r="I48">
-        <v>1011.451995022428</v>
+        <v>934.9696321118835</v>
       </c>
       <c r="J48">
-        <v>-244.6415775209221</v>
+        <v>-242.3167594724075</v>
       </c>
       <c r="K48">
-        <v>-1725.348719800352</v>
+        <v>-1693.766831349195</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.15643689365221</v>
+        <v>39.92050205676174</v>
       </c>
       <c r="G49">
-        <v>570.3716268314379</v>
+        <v>579.4082736954088</v>
       </c>
       <c r="H49">
-        <v>1985.94651265897</v>
+        <v>1947.565902827027</v>
       </c>
       <c r="I49">
-        <v>1028.583924069633</v>
+        <v>1111.777275713478</v>
       </c>
       <c r="J49">
-        <v>-276.1291877169442</v>
+        <v>-272.4872149542317</v>
       </c>
       <c r="K49">
-        <v>-2134.672110710254</v>
+        <v>-2093.142732932418</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>40.10442963735241</v>
+        <v>37.46208284359344</v>
       </c>
       <c r="G50">
-        <v>559.8118834058415</v>
+        <v>553.9820374451792</v>
       </c>
       <c r="H50">
-        <v>1956.823622421571</v>
+        <v>2023.876690418033</v>
       </c>
       <c r="I50">
-        <v>1198.071583422168</v>
+        <v>1108.213378469559</v>
       </c>
       <c r="J50">
-        <v>-329.1087292198492</v>
+        <v>-323.7277572644868</v>
       </c>
       <c r="K50">
-        <v>-2500.465060424463</v>
+        <v>-2544.036258368</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.72142913504711</v>
+        <v>39.0049235234716</v>
       </c>
       <c r="G51">
-        <v>583.6525318323226</v>
+        <v>572.2395217259714</v>
       </c>
       <c r="H51">
-        <v>2009.642139391965</v>
+        <v>1951.771464178708</v>
       </c>
       <c r="I51">
-        <v>1267.224210843224</v>
+        <v>1243.567110688224</v>
       </c>
       <c r="J51">
-        <v>-393.5426153145678</v>
+        <v>-374.0091412962385</v>
       </c>
       <c r="K51">
-        <v>-2892.688327180874</v>
+        <v>-3066.903761405452</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.4846091035119</v>
+        <v>36.25817458854181</v>
       </c>
       <c r="G52">
-        <v>580.8960893523735</v>
+        <v>597.0174845863294</v>
       </c>
       <c r="H52">
-        <v>1964.049737180697</v>
+        <v>2052.703459660503</v>
       </c>
       <c r="I52">
-        <v>1300.178150911185</v>
+        <v>1319.087660789387</v>
       </c>
       <c r="J52">
-        <v>-442.760952795664</v>
+        <v>-420.5028151876545</v>
       </c>
       <c r="K52">
-        <v>-3496.522202376895</v>
+        <v>-3484.614544695947</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.43782909120107</v>
+        <v>36.25956152547597</v>
       </c>
       <c r="G53">
-        <v>610.440747176375</v>
+        <v>596.5081793778864</v>
       </c>
       <c r="H53">
-        <v>2061.872194196475</v>
+        <v>2008.067906102873</v>
       </c>
       <c r="I53">
-        <v>1502.285789319007</v>
+        <v>1463.387439337589</v>
       </c>
       <c r="J53">
-        <v>-481.6329896079787</v>
+        <v>-458.7016407376178</v>
       </c>
       <c r="K53">
-        <v>-3633.474868259858</v>
+        <v>-3868.544046748981</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.72640235306161</v>
+        <v>35.19497286947837</v>
       </c>
       <c r="G54">
-        <v>633.6362974200156</v>
+        <v>674.2059936949757</v>
       </c>
       <c r="H54">
-        <v>1993.148622009267</v>
+        <v>1978.280396642688</v>
       </c>
       <c r="I54">
-        <v>1511.824129289757</v>
+        <v>1511.125556615677</v>
       </c>
       <c r="J54">
-        <v>-540.774565811853</v>
+        <v>-548.5051929112307</v>
       </c>
       <c r="K54">
-        <v>-4429.639884033535</v>
+        <v>-4171.238481349995</v>
       </c>
     </row>
   </sheetData>
